--- a/score.xlsx
+++ b/score.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wsqaa\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Task1014\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C75296C-A7B2-4BAE-92B0-5481AACC13B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA878F44-E54E-4972-B35C-C090ED801022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="4245" windowWidth="21600" windowHeight="11385" xr2:uid="{4CC185DE-F6C0-4C8C-B8F7-08B7E241FB6A}"/>
+    <workbookView xWindow="1245" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{4CC185DE-F6C0-4C8C-B8F7-08B7E241FB6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <r>
       <rPr>
@@ -106,6 +107,33 @@
   </si>
   <si>
     <t>费先彬14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学号 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">姓名 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">数学成绩 </t>
+  </si>
+  <si>
+    <t>费先彬1</t>
+  </si>
+  <si>
+    <t>费先彬2</t>
+  </si>
+  <si>
+    <t>191</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">语文成绩 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理成绩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -171,11 +199,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE75959-C785-4AC8-A084-ADD7C68A80E3}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -526,15 +557,15 @@
       </c>
       <c r="C2">
         <f ca="1">INT(RANDBETWEEN(30,100))</f>
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D2">
         <f ca="1">INT(RANDBETWEEN(30,100))</f>
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E2">
         <f ca="1">INT(RANDBETWEEN(30,100))</f>
-        <v>43</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -546,15 +577,15 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:E15" ca="1" si="0">INT(RANDBETWEEN(30,100))</f>
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -566,15 +597,15 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -586,15 +617,15 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -606,15 +637,15 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -626,15 +657,15 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -646,15 +677,15 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -666,15 +697,15 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -686,15 +717,15 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -706,15 +737,15 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -726,7 +757,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
@@ -734,7 +765,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -746,11 +777,11 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
@@ -766,15 +797,15 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -786,15 +817,286 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36518F86-623D-496F-B129-8AE42E5AFD75}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>100001</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2">
+        <v>57</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>100002</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2">
+        <v>57</v>
+      </c>
+      <c r="D3" s="2">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>100003</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>47</v>
+      </c>
+      <c r="D4" s="2">
+        <v>79</v>
+      </c>
+      <c r="E4" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>100004</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>100005</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2">
+        <v>53</v>
+      </c>
+      <c r="E6" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>100006</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>75</v>
+      </c>
+      <c r="D7" s="2">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>100007</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2">
+        <v>59</v>
+      </c>
+      <c r="D8" s="2">
+        <v>61</v>
+      </c>
+      <c r="E8" s="2">
         <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>100008</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2">
+        <v>62</v>
+      </c>
+      <c r="D9" s="2">
+        <v>58</v>
+      </c>
+      <c r="E9" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>100009</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>91</v>
+      </c>
+      <c r="D10" s="2">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>100010</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2">
+        <v>46</v>
+      </c>
+      <c r="D11" s="2">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>100011</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2">
+        <v>64</v>
+      </c>
+      <c r="D12" s="2">
+        <v>88</v>
+      </c>
+      <c r="E12" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>100012</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2">
+        <v>85</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>100013</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2">
+        <v>46</v>
+      </c>
+      <c r="E14" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>100014</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2">
+        <v>88</v>
+      </c>
+      <c r="D15" s="2">
+        <v>78</v>
+      </c>
+      <c r="E15" s="2">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/score.xlsx
+++ b/score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Task1014\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA878F44-E54E-4972-B35C-C090ED801022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59EC5FB-7031-44AF-8177-0DE476ED128F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1245" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{4CC185DE-F6C0-4C8C-B8F7-08B7E241FB6A}"/>
   </bookViews>
@@ -115,9 +115,6 @@
     <t xml:space="preserve">姓名 </t>
   </si>
   <si>
-    <t xml:space="preserve">数学成绩 </t>
-  </si>
-  <si>
     <t>费先彬1</t>
   </si>
   <si>
@@ -128,11 +125,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">语文成绩 </t>
+    <t>物理成绩</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>物理成绩</t>
+    <t>语文成绩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学成绩</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -557,15 +558,15 @@
       </c>
       <c r="C2">
         <f ca="1">INT(RANDBETWEEN(30,100))</f>
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <f ca="1">INT(RANDBETWEEN(30,100))</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E2">
         <f ca="1">INT(RANDBETWEEN(30,100))</f>
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -577,15 +578,15 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:E15" ca="1" si="0">INT(RANDBETWEEN(30,100))</f>
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -597,15 +598,15 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -617,15 +618,15 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -637,15 +638,15 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -657,15 +658,15 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -677,15 +678,15 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -697,15 +698,15 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -717,15 +718,15 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -737,15 +738,15 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -757,15 +758,15 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -777,15 +778,15 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -797,15 +798,15 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -817,15 +818,15 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -839,7 +840,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -852,13 +853,13 @@
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
         <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -866,7 +867,7 @@
         <v>100001</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2">
         <v>57</v>
@@ -883,7 +884,7 @@
         <v>100002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2">
         <v>57</v>
@@ -1059,7 +1060,7 @@
         <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2">
         <v>54</v>

--- a/score.xlsx
+++ b/score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Task1014\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59EC5FB-7031-44AF-8177-0DE476ED128F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0125FAF-2E80-400E-BD16-9F254ED5686F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1245" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{4CC185DE-F6C0-4C8C-B8F7-08B7E241FB6A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <r>
       <rPr>
@@ -115,16 +115,6 @@
     <t xml:space="preserve">姓名 </t>
   </si>
   <si>
-    <t>费先彬1</t>
-  </si>
-  <si>
-    <t>费先彬2</t>
-  </si>
-  <si>
-    <t>191</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>物理成绩</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -135,12 +125,69 @@
   <si>
     <t>数学成绩</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>费先彬3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>费先彬4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>费先彬5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>费先彬6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>费先彬7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>费先彬8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>费先彬9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>费先彬10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>费先彬11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>费先彬12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>费先彬13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>费先彬15</t>
+  </si>
+  <si>
+    <t>费先彬16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -200,7 +247,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -208,6 +255,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -558,15 +608,15 @@
       </c>
       <c r="C2">
         <f ca="1">INT(RANDBETWEEN(30,100))</f>
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <f ca="1">INT(RANDBETWEEN(30,100))</f>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <f ca="1">INT(RANDBETWEEN(30,100))</f>
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -578,15 +628,15 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:E15" ca="1" si="0">INT(RANDBETWEEN(30,100))</f>
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -602,11 +652,11 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -618,15 +668,15 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -638,15 +688,15 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -658,15 +708,15 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -678,15 +728,15 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -698,15 +748,15 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -718,15 +768,15 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -738,15 +788,15 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -758,15 +808,15 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="D12">
-        <f t="shared" ca="1" si="0"/>
-        <v>100</v>
-      </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -778,15 +828,15 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -798,15 +848,15 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -818,15 +868,15 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -837,10 +887,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36518F86-623D-496F-B129-8AE42E5AFD75}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C14" sqref="C14:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -853,252 +903,289 @@
         <v>20</v>
       </c>
       <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>100001</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45</v>
+      </c>
+      <c r="E2" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>100002</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>57</v>
+      </c>
+      <c r="D3" s="3">
+        <v>37</v>
+      </c>
+      <c r="E3" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>100003</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3">
+        <v>47</v>
+      </c>
+      <c r="D4" s="3">
+        <v>79</v>
+      </c>
+      <c r="E4" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>100004</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C5" s="3">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>100005</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3">
+        <v>46</v>
+      </c>
+      <c r="D6" s="3">
+        <v>53</v>
+      </c>
+      <c r="E6" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>100006</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3">
+        <v>75</v>
+      </c>
+      <c r="D7" s="3">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>100007</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3">
+        <v>59</v>
+      </c>
+      <c r="D8" s="3">
+        <v>61</v>
+      </c>
+      <c r="E8" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>100008</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3">
+        <v>62</v>
+      </c>
+      <c r="D9" s="3">
+        <v>58</v>
+      </c>
+      <c r="E9" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>100009</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3">
+        <v>91</v>
+      </c>
+      <c r="D10" s="3">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>100010</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3">
+        <v>46</v>
+      </c>
+      <c r="D11" s="3">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>100011</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3">
+        <v>64</v>
+      </c>
+      <c r="D12" s="3">
+        <v>88</v>
+      </c>
+      <c r="E12" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>100012</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3">
+        <v>85</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>100001</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2">
-        <v>57</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45</v>
-      </c>
-      <c r="E2" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>100002</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2">
-        <v>57</v>
-      </c>
-      <c r="D3" s="2">
-        <v>37</v>
-      </c>
-      <c r="E3" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>100003</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
-        <v>47</v>
-      </c>
-      <c r="D4" s="2">
-        <v>79</v>
-      </c>
-      <c r="E4" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>100004</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
-        <v>32</v>
-      </c>
-      <c r="D5" s="2">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>100005</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="E13" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>100013</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3">
+        <v>48</v>
+      </c>
+      <c r="D14" s="3">
         <v>46</v>
       </c>
-      <c r="D6" s="2">
-        <v>53</v>
-      </c>
-      <c r="E6" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>100006</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2">
-        <v>75</v>
-      </c>
-      <c r="D7" s="2">
-        <v>36</v>
-      </c>
-      <c r="E7" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>100007</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2">
-        <v>59</v>
-      </c>
-      <c r="D8" s="2">
-        <v>61</v>
-      </c>
-      <c r="E8" s="2">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>100008</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2">
-        <v>62</v>
-      </c>
-      <c r="D9" s="2">
-        <v>58</v>
-      </c>
-      <c r="E9" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>100009</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2">
-        <v>91</v>
-      </c>
-      <c r="D10" s="2">
-        <v>35</v>
-      </c>
-      <c r="E10" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>100010</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2">
-        <v>46</v>
-      </c>
-      <c r="D11" s="2">
-        <v>39</v>
-      </c>
-      <c r="E11" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>100011</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2">
-        <v>64</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="E14" s="3">
         <v>88</v>
       </c>
-      <c r="E12" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>100012</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2">
-        <v>85</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>100013</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2">
-        <v>48</v>
-      </c>
-      <c r="D14" s="2">
-        <v>46</v>
-      </c>
-      <c r="E14" s="2">
-        <v>88</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>100014</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2">
-        <v>88</v>
-      </c>
-      <c r="D15" s="2">
-        <v>78</v>
-      </c>
-      <c r="E15" s="2">
-        <v>39</v>
-      </c>
+      <c r="C15" s="3">
+        <v>49</v>
+      </c>
+      <c r="D15" s="3">
+        <v>47</v>
+      </c>
+      <c r="E15" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>100015</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3">
+        <v>50</v>
+      </c>
+      <c r="D16" s="3">
+        <v>48</v>
+      </c>
+      <c r="E16" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>100016</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="3">
+        <v>51</v>
+      </c>
+      <c r="D17" s="3">
+        <v>49</v>
+      </c>
+      <c r="E17" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
